--- a/docs/qa/matrices/security-hardening.xlsx
+++ b/docs/qa/matrices/security-hardening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Documents\QA-Journey\CertifyHub-Tests\CertifyHub---Test-Strategy\docs\qa\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3480B1-9CB2-4B6C-8B57-78E7B98E3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA315D49-AD8C-4318-9FBE-78AB1507D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6A1F70D-DD27-4DBD-A810-A0A08D366CEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -66,6 +66,182 @@
   </si>
   <si>
     <t>JIRA DEFECT ID(IF THERE IS)</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Verify that the QR code URL does not contain plain-text sensitive data (SQL Injection check in URL).</t>
+  </si>
+  <si>
+    <t>No sensitive data is present in the URL address.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. (Observe URL) 
+2. Click "Templates" in the sidebar. (Observe URL) 
+3. Click "Reuse" your desired template. (Observe URL) 
+4. Upload excel file containing the certificate reciever's appropriate data (Name, Email) 
+5. Enable send Certificates. 
+6. Click Generate and Send. (Observe URL)</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>Verify that the system terminates the Admin session if the browser window is closed.</t>
+  </si>
+  <si>
+    <t>The app terminates the Admin session.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Close the Browser Window. 
+3. Open it again.</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>Verify backend rejects API requests without authentication token.</t>
+  </si>
+  <si>
+    <t>The response of the app is 401 Unauthorized.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Generate a certificate then capture the API request in Chrome Devtools. 
+3. Open POSTMAN 
+4. Paste the Request in POSTMAN. 5. Remove the Header in the request (Authorization: Bearer ) 
+6. Click request.</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>Verify system prevents script injection from Excel file data (XSS attack).</t>
+  </si>
+  <si>
+    <t>No JavaScript execution occurs in browser.</t>
+  </si>
+  <si>
+    <t>1. Put &lt;script&gt;alert('XSS')&lt;/script&gt; in the Name field in an excel file. 
+2. Login as Admin. 
+3. Click "Templates" in the sidebar. 
+4. Click "Reuse" your desired template. 
+5. Upload excel file. 
+6. Enable send Certificates. 
+7. Click Generate and Send.</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>Verify system prevents SQL injection through input fields.</t>
+  </si>
+  <si>
+    <t>Database remains intact.</t>
+  </si>
+  <si>
+    <t>1. Go to CertifyHub. (https://certifyhub-api.azurewebsites.net/) 
+2. Locate and Click the "Verify" button. 
+3. Input the payload in the text field "'; DROP TABLE users; --" 
+4. Click Verify.</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>Verify system handles extremely long input values properly.</t>
+  </si>
+  <si>
+    <t>The system invalidates the request due to character limit being hit up.</t>
+  </si>
+  <si>
+    <t>1. Put a 5,000 character long text in the Name field in an excel file. 
+2. Login as Admin. 
+3. Click "Templates" in the sidebar. 
+4. Click "Reuse" your desired template. 
+5. Upload excel file. 
+6. Enable send Certificates. 
+7. Click Generate and Send.</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>Verify system limits repeated failed login attempts.</t>
+  </si>
+  <si>
+    <t>The app enforces request lockage on the user.</t>
+  </si>
+  <si>
+    <t>1. Go to CertifyHub. (https://certifyhub-api.azurewebsites.net/)
+2. Locate and click admin login and input wrong password 20 times in a single minute.</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>Verify expired token cannot access protected resources.</t>
+  </si>
+  <si>
+    <t>The app blocks the request.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin and capture the JWT token in Chrome Devtools. 
+2. Wait until token expires. (5 mins) 
+3. Hit a request in POSTMAN using the JWT. ()</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>Verify system rejects modified JWT tokens.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin and capture the JWT token in Chrome Devtools. 
+2. Modify a single character in the JWT. 
+3. Hit a request in POSTMAN usiing the modified JWT.</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>Verify system validates file MIME type and content, not just extension.</t>
+  </si>
+  <si>
+    <t>Validation error shown: "Invalid file type."</t>
+  </si>
+  <si>
+    <t>1. Open a notepad and input these &lt;?php echo "Hacked"; ?&gt; then save the file as malicious.php 
+2. Change the files extension into ".xsls" (into an excel file). 
+3. Login as Admin. 
+4. Click "Templates" in the sidebar. 
+5. Click "Reuse" your desired template. 
+6. Upload malicious.xsls you created. 
+7. Enable send Certificates. 
+8. Click Generate and Send.</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>Verify system prevents duplicate processing during rapid multiple submissions.</t>
+  </si>
+  <si>
+    <t>Only ONE certificate batch created.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Click "Templates" in the sidebar. 
+3. Click "Reuse" your desired template. 
+4. Upload excel file containing the certificate reciever's appropriate data (Name, Email) 
+5. Enable send Certificates. 
+6. Click Generate &amp; Send multiple times (10 times) 
+7. Monitor the Network tab in DevTools (multiple requests?)</t>
   </si>
 </sst>
 </file>
@@ -128,10 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,27 +649,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E1D032-4572-4826-B4CD-3DD8E0382E83}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="33.21875" customWidth="1"/>
     <col min="10" max="10" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +701,216 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:10" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:10" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>